--- a/docs/downloads/Q9_differential_binding.xlsx
+++ b/docs/downloads/Q9_differential_binding.xlsx
@@ -2792,7 +2792,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.19664083078245</v>
+        <v>8.19664083078245</v>
       </c>
       <c r="C2" t="n">
         <v>3.13945151843158</v>
@@ -2818,7 +2818,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.44292247132387</v>
+        <v>9.44292247132387</v>
       </c>
       <c r="C3" t="n">
         <v>1.93277030933242</v>
@@ -2844,7 +2844,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.6031473971258</v>
+        <v>6.6031473971258</v>
       </c>
       <c r="C4" t="n">
         <v>3.32686602486459</v>
@@ -2870,7 +2870,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.39141229220649</v>
+        <v>7.39141229220649</v>
       </c>
       <c r="C5" t="n">
         <v>2.35429300278782</v>
@@ -2896,7 +2896,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.31743202023266</v>
+        <v>6.31743202023266</v>
       </c>
       <c r="C6" t="n">
         <v>3.5721287550444</v>
@@ -2922,7 +2922,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.55984503175428</v>
+        <v>6.55984503175428</v>
       </c>
       <c r="C7" t="n">
         <v>2.8712208643838</v>
@@ -2948,7 +2948,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>-9.31462878462311</v>
+        <v>9.31462878462311</v>
       </c>
       <c r="C8" t="n">
         <v>1.80960174388758</v>
@@ -2974,7 +2974,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.31817275481979</v>
+        <v>7.31817275481979</v>
       </c>
       <c r="C9" t="n">
         <v>2.2558116828761</v>
@@ -3000,7 +3000,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.24068210176488</v>
+        <v>7.24068210176488</v>
       </c>
       <c r="C10" t="n">
         <v>2.18089247495776</v>
@@ -3026,7 +3026,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.42227714548254</v>
+        <v>6.42227714548254</v>
       </c>
       <c r="C11" t="n">
         <v>2.75690693777509</v>
@@ -3052,7 +3052,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.42337166713516</v>
+        <v>6.42337166713516</v>
       </c>
       <c r="C12" t="n">
         <v>2.73822803920144</v>
@@ -3078,7 +3078,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>-9.13918209628249</v>
+        <v>9.13918209628249</v>
       </c>
       <c r="C13" t="n">
         <v>1.64166558422599</v>
@@ -3104,7 +3104,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.92266780337636</v>
+        <v>5.92266780337636</v>
       </c>
       <c r="C14" t="n">
         <v>3.58784871923209</v>
@@ -3130,7 +3130,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-6.62882068380435</v>
+        <v>6.62882068380435</v>
       </c>
       <c r="C15" t="n">
         <v>2.41973008102348</v>
@@ -3156,7 +3156,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>-7.11191132283377</v>
+        <v>7.11191132283377</v>
       </c>
       <c r="C16" t="n">
         <v>2.05674813014358</v>
@@ -3182,7 +3182,7 @@
         <v>49</v>
       </c>
       <c r="B17" t="n">
-        <v>-7.07910877030494</v>
+        <v>7.07910877030494</v>
       </c>
       <c r="C17" t="n">
         <v>2.05314237530331</v>
@@ -3208,7 +3208,7 @@
         <v>52</v>
       </c>
       <c r="B18" t="n">
-        <v>-6.05858512587022</v>
+        <v>6.05858512587022</v>
       </c>
       <c r="C18" t="n">
         <v>3.08965143668927</v>
@@ -3234,7 +3234,7 @@
         <v>54</v>
       </c>
       <c r="B19" t="n">
-        <v>-6.2131042602741</v>
+        <v>6.2131042602741</v>
       </c>
       <c r="C19" t="n">
         <v>2.55396933424737</v>
@@ -3260,7 +3260,7 @@
         <v>56</v>
       </c>
       <c r="B20" t="n">
-        <v>-6.13374458469544</v>
+        <v>6.13374458469544</v>
       </c>
       <c r="C20" t="n">
         <v>2.88616249751917</v>
@@ -3286,7 +3286,7 @@
         <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.94104156989552</v>
+        <v>5.94104156989552</v>
       </c>
       <c r="C21" t="n">
         <v>3.00594685080746</v>
@@ -3312,7 +3312,7 @@
         <v>62</v>
       </c>
       <c r="B22" t="n">
-        <v>-6.93782000628017</v>
+        <v>6.93782000628017</v>
       </c>
       <c r="C22" t="n">
         <v>1.9176596936194</v>
@@ -3338,7 +3338,7 @@
         <v>65</v>
       </c>
       <c r="B23" t="n">
-        <v>-6.9244863592754</v>
+        <v>6.9244863592754</v>
       </c>
       <c r="C23" t="n">
         <v>1.90486745223584</v>
@@ -3364,7 +3364,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="n">
-        <v>-6.92130934957186</v>
+        <v>6.92130934957186</v>
       </c>
       <c r="C24" t="n">
         <v>1.87384330598311</v>
@@ -3390,7 +3390,7 @@
         <v>71</v>
       </c>
       <c r="B25" t="n">
-        <v>-6.02982028449561</v>
+        <v>6.02982028449561</v>
       </c>
       <c r="C25" t="n">
         <v>2.78535519919156</v>
@@ -3416,7 +3416,7 @@
         <v>73</v>
       </c>
       <c r="B26" t="n">
-        <v>-6.86007620638805</v>
+        <v>6.86007620638805</v>
       </c>
       <c r="C26" t="n">
         <v>1.81521799843026</v>
@@ -3442,7 +3442,7 @@
         <v>75</v>
       </c>
       <c r="B27" t="n">
-        <v>-6.82409294732306</v>
+        <v>6.82409294732306</v>
       </c>
       <c r="C27" t="n">
         <v>1.80901127531915</v>
@@ -3468,7 +3468,7 @@
         <v>77</v>
       </c>
       <c r="B28" t="n">
-        <v>-6.02998295290103</v>
+        <v>6.02998295290103</v>
       </c>
       <c r="C28" t="n">
         <v>2.37717190117175</v>
@@ -3494,7 +3494,7 @@
         <v>80</v>
       </c>
       <c r="B29" t="n">
-        <v>-6.2793679212476</v>
+        <v>6.2793679212476</v>
       </c>
       <c r="C29" t="n">
         <v>2.10606865696626</v>
@@ -3520,7 +3520,7 @@
         <v>83</v>
       </c>
       <c r="B30" t="n">
-        <v>-5.5576741596788</v>
+        <v>5.5576741596788</v>
       </c>
       <c r="C30" t="n">
         <v>3.24365678019182</v>
@@ -3546,7 +3546,7 @@
         <v>85</v>
       </c>
       <c r="B31" t="n">
-        <v>-6.2701774820139</v>
+        <v>6.2701774820139</v>
       </c>
       <c r="C31" t="n">
         <v>2.09720395689969</v>
@@ -3572,7 +3572,7 @@
         <v>88</v>
       </c>
       <c r="B32" t="n">
-        <v>-6.01439629491126</v>
+        <v>6.01439629491126</v>
       </c>
       <c r="C32" t="n">
         <v>2.34227991384799</v>
@@ -3598,7 +3598,7 @@
         <v>90</v>
       </c>
       <c r="B33" t="n">
-        <v>-6.27855326985243</v>
+        <v>6.27855326985243</v>
       </c>
       <c r="C33" t="n">
         <v>2.08199362759016</v>
@@ -3624,7 +3624,7 @@
         <v>93</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.59636100844361</v>
+        <v>5.59636100844361</v>
       </c>
       <c r="C34" t="n">
         <v>3.10218735909348</v>
@@ -3650,7 +3650,7 @@
         <v>96</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.65074661070695</v>
+        <v>5.65074661070695</v>
       </c>
       <c r="C35" t="n">
         <v>2.97738791321431</v>
@@ -3676,7 +3676,7 @@
         <v>99</v>
       </c>
       <c r="B36" t="n">
-        <v>-5.51497892695471</v>
+        <v>5.51497892695471</v>
       </c>
       <c r="C36" t="n">
         <v>3.20215675839628</v>
@@ -3702,7 +3702,7 @@
         <v>101</v>
       </c>
       <c r="B37" t="n">
-        <v>-5.94696113870838</v>
+        <v>5.94696113870838</v>
       </c>
       <c r="C37" t="n">
         <v>2.29727477160974</v>
@@ -3728,7 +3728,7 @@
         <v>104</v>
       </c>
       <c r="B38" t="n">
-        <v>-5.67146330518348</v>
+        <v>5.67146330518348</v>
       </c>
       <c r="C38" t="n">
         <v>2.9559420063092</v>
@@ -3754,7 +3754,7 @@
         <v>107</v>
       </c>
       <c r="B39" t="n">
-        <v>-5.67011994113538</v>
+        <v>5.67011994113538</v>
       </c>
       <c r="C39" t="n">
         <v>2.68173494025114</v>
@@ -3780,7 +3780,7 @@
         <v>110</v>
       </c>
       <c r="B40" t="n">
-        <v>-5.39636597357654</v>
+        <v>5.39636597357654</v>
       </c>
       <c r="C40" t="n">
         <v>3.56461297698751</v>
@@ -3806,7 +3806,7 @@
         <v>113</v>
       </c>
       <c r="B41" t="n">
-        <v>-5.3743212711691</v>
+        <v>5.3743212711691</v>
       </c>
       <c r="C41" t="n">
         <v>3.64181077522747</v>
@@ -3832,7 +3832,7 @@
         <v>116</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.7410269660259</v>
+        <v>5.7410269660259</v>
       </c>
       <c r="C42" t="n">
         <v>2.81209867999459</v>
@@ -3858,7 +3858,7 @@
         <v>119</v>
       </c>
       <c r="B43" t="n">
-        <v>-6.21373089109347</v>
+        <v>6.21373089109347</v>
       </c>
       <c r="C43" t="n">
         <v>2.04320007561695</v>
@@ -3884,7 +3884,7 @@
         <v>122</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.94120914684853</v>
+        <v>5.94120914684853</v>
       </c>
       <c r="C44" t="n">
         <v>2.2719824749218</v>
@@ -3910,7 +3910,7 @@
         <v>125</v>
       </c>
       <c r="B45" t="n">
-        <v>-5.35226145058111</v>
+        <v>5.35226145058111</v>
       </c>
       <c r="C45" t="n">
         <v>3.62905362058083</v>
@@ -3936,7 +3936,7 @@
         <v>128</v>
       </c>
       <c r="B46" t="n">
-        <v>-5.8886323842911</v>
+        <v>5.8886323842911</v>
       </c>
       <c r="C46" t="n">
         <v>2.64878508657176</v>
@@ -3962,7 +3962,7 @@
         <v>131</v>
       </c>
       <c r="B47" t="n">
-        <v>-6.18013228947144</v>
+        <v>6.18013228947144</v>
       </c>
       <c r="C47" t="n">
         <v>2.01098256848202</v>
@@ -3988,7 +3988,7 @@
         <v>134</v>
       </c>
       <c r="B48" t="n">
-        <v>-6.66286617383256</v>
+        <v>6.66286617383256</v>
       </c>
       <c r="C48" t="n">
         <v>1.65554343913624</v>
@@ -4014,7 +4014,7 @@
         <v>137</v>
       </c>
       <c r="B49" t="n">
-        <v>-6.17162987686229</v>
+        <v>6.17162987686229</v>
       </c>
       <c r="C49" t="n">
         <v>2.00283389013919</v>
@@ -4040,7 +4040,7 @@
         <v>138</v>
       </c>
       <c r="B50" t="n">
-        <v>-6.07079478578484</v>
+        <v>6.07079478578484</v>
       </c>
       <c r="C50" t="n">
         <v>2.43638028423791</v>
@@ -4066,7 +4066,7 @@
         <v>140</v>
       </c>
       <c r="B51" t="n">
-        <v>-5.84096679872112</v>
+        <v>5.84096679872112</v>
       </c>
       <c r="C51" t="n">
         <v>2.19550573241561</v>
@@ -4092,7 +4092,7 @@
         <v>143</v>
       </c>
       <c r="B52" t="n">
-        <v>-6.62720408447359</v>
+        <v>6.62720408447359</v>
       </c>
       <c r="C52" t="n">
         <v>1.59365929586233</v>
@@ -4118,7 +4118,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="n">
-        <v>-5.69941239490382</v>
+        <v>5.69941239490382</v>
       </c>
       <c r="C53" t="n">
         <v>2.72562999163635</v>
@@ -4144,7 +4144,7 @@
         <v>147</v>
       </c>
       <c r="B54" t="n">
-        <v>-5.67250435254862</v>
+        <v>5.67250435254862</v>
       </c>
       <c r="C54" t="n">
         <v>2.71504323340032</v>
@@ -4170,7 +4170,7 @@
         <v>150</v>
       </c>
       <c r="B55" t="n">
-        <v>-5.16944468153495</v>
+        <v>5.16944468153495</v>
       </c>
       <c r="C55" t="n">
         <v>3.51768820222608</v>
@@ -4196,7 +4196,7 @@
         <v>153</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.33942858336727</v>
+        <v>5.33942858336727</v>
       </c>
       <c r="C56" t="n">
         <v>3.05525198915829</v>
@@ -4222,7 +4222,7 @@
         <v>156</v>
       </c>
       <c r="B57" t="n">
-        <v>-5.32283639183851</v>
+        <v>5.32283639183851</v>
       </c>
       <c r="C57" t="n">
         <v>3.34700856493302</v>
@@ -4248,7 +4248,7 @@
         <v>159</v>
       </c>
       <c r="B58" t="n">
-        <v>-5.24724439547762</v>
+        <v>5.24724439547762</v>
       </c>
       <c r="C58" t="n">
         <v>3.25385196658537</v>
@@ -4274,7 +4274,7 @@
         <v>161</v>
       </c>
       <c r="B59" t="n">
-        <v>-6.57073597797</v>
+        <v>6.57073597797</v>
       </c>
       <c r="C59" t="n">
         <v>1.54012214078698</v>
@@ -4300,7 +4300,7 @@
         <v>163</v>
       </c>
       <c r="B60" t="n">
-        <v>-6.29532473750325</v>
+        <v>6.29532473750325</v>
       </c>
       <c r="C60" t="n">
         <v>2.14466769789048</v>
@@ -4326,7 +4326,7 @@
         <v>166</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.76292255893854</v>
+        <v>5.76292255893854</v>
       </c>
       <c r="C61" t="n">
         <v>2.54493002578089</v>
@@ -4352,7 +4352,7 @@
         <v>169</v>
       </c>
       <c r="B62" t="n">
-        <v>-5.29193385191386</v>
+        <v>5.29193385191386</v>
       </c>
       <c r="C62" t="n">
         <v>3.13385164362003</v>
@@ -4378,7 +4378,7 @@
         <v>172</v>
       </c>
       <c r="B63" t="n">
-        <v>-6.042522499629</v>
+        <v>6.042522499629</v>
       </c>
       <c r="C63" t="n">
         <v>1.8796392666053</v>
@@ -4404,7 +4404,7 @@
         <v>174</v>
       </c>
       <c r="B64" t="n">
-        <v>-5.93881206090277</v>
+        <v>5.93881206090277</v>
       </c>
       <c r="C64" t="n">
         <v>2.30931072473862</v>
@@ -4430,7 +4430,7 @@
         <v>177</v>
       </c>
       <c r="B65" t="n">
-        <v>-5.93668648776391</v>
+        <v>5.93668648776391</v>
       </c>
       <c r="C65" t="n">
         <v>2.30725023817095</v>
@@ -4456,7 +4456,7 @@
         <v>179</v>
       </c>
       <c r="B66" t="n">
-        <v>-5.30572853968793</v>
+        <v>5.30572853968793</v>
       </c>
       <c r="C66" t="n">
         <v>2.98785080611877</v>
@@ -4482,7 +4482,7 @@
         <v>182</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.7414785912678</v>
+        <v>5.7414785912678</v>
       </c>
       <c r="C67" t="n">
         <v>2.48947906887711</v>
@@ -4508,7 +4508,7 @@
         <v>185</v>
       </c>
       <c r="B68" t="n">
-        <v>-5.36171503682346</v>
+        <v>5.36171503682346</v>
       </c>
       <c r="C68" t="n">
         <v>2.87501419860083</v>
@@ -4534,7 +4534,7 @@
         <v>187</v>
       </c>
       <c r="B69" t="n">
-        <v>-5.26305517410074</v>
+        <v>5.26305517410074</v>
       </c>
       <c r="C69" t="n">
         <v>2.96990781827324</v>
@@ -4560,7 +4560,7 @@
         <v>190</v>
       </c>
       <c r="B70" t="n">
-        <v>-5.73112459181873</v>
+        <v>5.73112459181873</v>
       </c>
       <c r="C70" t="n">
         <v>2.46206238899783</v>
@@ -4586,7 +4586,7 @@
         <v>193</v>
       </c>
       <c r="B71" t="n">
-        <v>-5.42658266453424</v>
+        <v>5.42658266453424</v>
       </c>
       <c r="C71" t="n">
         <v>2.73304539065079</v>
@@ -4612,7 +4612,7 @@
         <v>196</v>
       </c>
       <c r="B72" t="n">
-        <v>-5.32359081126171</v>
+        <v>5.32359081126171</v>
       </c>
       <c r="C72" t="n">
         <v>2.83823751652767</v>
@@ -4638,7 +4638,7 @@
         <v>197</v>
       </c>
       <c r="B73" t="n">
-        <v>-5.15141093442469</v>
+        <v>5.15141093442469</v>
       </c>
       <c r="C73" t="n">
         <v>3.04096044669423</v>
@@ -4664,7 +4664,7 @@
         <v>200</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.68317156606207</v>
+        <v>5.68317156606207</v>
       </c>
       <c r="C74" t="n">
         <v>2.04454504701913</v>
@@ -4690,7 +4690,7 @@
         <v>202</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.53784818140628</v>
+        <v>5.53784818140628</v>
       </c>
       <c r="C75" t="n">
         <v>2.58511047292359</v>
@@ -4716,7 +4716,7 @@
         <v>204</v>
       </c>
       <c r="B76" t="n">
-        <v>-5.16297995410647</v>
+        <v>5.16297995410647</v>
       </c>
       <c r="C76" t="n">
         <v>3.0307453481047</v>
@@ -4742,7 +4742,7 @@
         <v>206</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.53351912211494</v>
+        <v>5.53351912211494</v>
       </c>
       <c r="C77" t="n">
         <v>2.58097108936962</v>
@@ -4768,7 +4768,7 @@
         <v>209</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.66829026016418</v>
+        <v>5.66829026016418</v>
       </c>
       <c r="C78" t="n">
         <v>2.03039840067068</v>
@@ -4794,7 +4794,7 @@
         <v>210</v>
       </c>
       <c r="B79" t="n">
-        <v>-5.51295978706267</v>
+        <v>5.51295978706267</v>
       </c>
       <c r="C79" t="n">
         <v>2.56122703186639</v>
@@ -4820,7 +4820,7 @@
         <v>213</v>
       </c>
       <c r="B80" t="n">
-        <v>-4.99219168892419</v>
+        <v>4.99219168892419</v>
       </c>
       <c r="C80" t="n">
         <v>3.57302308220524</v>
@@ -4846,7 +4846,7 @@
         <v>215</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.12162692220782</v>
+        <v>5.12162692220782</v>
       </c>
       <c r="C81" t="n">
         <v>2.99085584906306</v>
@@ -4872,7 +4872,7 @@
         <v>218</v>
       </c>
       <c r="B82" t="n">
-        <v>-6.13649348831764</v>
+        <v>6.13649348831764</v>
       </c>
       <c r="C82" t="n">
         <v>1.99269766733389</v>
@@ -4898,7 +4898,7 @@
         <v>221</v>
       </c>
       <c r="B83" t="n">
-        <v>-5.08896877860205</v>
+        <v>5.08896877860205</v>
       </c>
       <c r="C83" t="n">
         <v>3.24810419902015</v>
@@ -4924,7 +4924,7 @@
         <v>224</v>
       </c>
       <c r="B84" t="n">
-        <v>-5.25440737256414</v>
+        <v>5.25440737256414</v>
       </c>
       <c r="C84" t="n">
         <v>2.77158402732545</v>
@@ -4950,7 +4950,7 @@
         <v>227</v>
       </c>
       <c r="B85" t="n">
-        <v>-5.14416909704911</v>
+        <v>5.14416909704911</v>
       </c>
       <c r="C85" t="n">
         <v>3.05523648117243</v>
@@ -4976,7 +4976,7 @@
         <v>229</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.46747106872798</v>
+        <v>5.46747106872798</v>
       </c>
       <c r="C86" t="n">
         <v>2.50191091441811</v>
@@ -5002,7 +5002,7 @@
         <v>232</v>
       </c>
       <c r="B87" t="n">
-        <v>-5.60343046431727</v>
+        <v>5.60343046431727</v>
       </c>
       <c r="C87" t="n">
         <v>1.94863230470712</v>
@@ -5028,7 +5028,7 @@
         <v>235</v>
       </c>
       <c r="B88" t="n">
-        <v>-5.30039635073215</v>
+        <v>5.30039635073215</v>
       </c>
       <c r="C88" t="n">
         <v>2.6255810025377</v>
@@ -5054,7 +5054,7 @@
         <v>237</v>
       </c>
       <c r="B89" t="n">
-        <v>-4.9446142347685</v>
+        <v>4.9446142347685</v>
       </c>
       <c r="C89" t="n">
         <v>3.09021518286114</v>
@@ -5080,7 +5080,7 @@
         <v>240</v>
       </c>
       <c r="B90" t="n">
-        <v>-5.36764013713696</v>
+        <v>5.36764013713696</v>
       </c>
       <c r="C90" t="n">
         <v>2.45261840815668</v>
@@ -5106,7 +5106,7 @@
         <v>243</v>
       </c>
       <c r="B91" t="n">
-        <v>-5.78129872630646</v>
+        <v>5.78129872630646</v>
       </c>
       <c r="C91" t="n">
         <v>1.6320679901882</v>
@@ -5132,7 +5132,7 @@
         <v>245</v>
       </c>
       <c r="B92" t="n">
-        <v>-5.53310316317905</v>
+        <v>5.53310316317905</v>
       </c>
       <c r="C92" t="n">
         <v>1.9017604228215</v>
@@ -5158,7 +5158,7 @@
         <v>248</v>
       </c>
       <c r="B93" t="n">
-        <v>-5.52112171435097</v>
+        <v>5.52112171435097</v>
       </c>
       <c r="C93" t="n">
         <v>2.26041237282858</v>
@@ -5184,7 +5184,7 @@
         <v>250</v>
       </c>
       <c r="B94" t="n">
-        <v>-5.37688812993869</v>
+        <v>5.37688812993869</v>
       </c>
       <c r="C94" t="n">
         <v>2.43047054403849</v>
@@ -5210,7 +5210,7 @@
         <v>252</v>
       </c>
       <c r="B95" t="n">
-        <v>-5.52155844319449</v>
+        <v>5.52155844319449</v>
       </c>
       <c r="C95" t="n">
         <v>1.89081026395603</v>
@@ -5236,7 +5236,7 @@
         <v>255</v>
       </c>
       <c r="B96" t="n">
-        <v>-5.24727228129311</v>
+        <v>5.24727228129311</v>
       </c>
       <c r="C96" t="n">
         <v>2.5745945604186</v>
@@ -5262,7 +5262,7 @@
         <v>258</v>
       </c>
       <c r="B97" t="n">
-        <v>-5.75444847417991</v>
+        <v>5.75444847417991</v>
       </c>
       <c r="C97" t="n">
         <v>1.60674862783215</v>
@@ -5288,7 +5288,7 @@
         <v>261</v>
       </c>
       <c r="B98" t="n">
-        <v>-5.17310240605274</v>
+        <v>5.17310240605274</v>
       </c>
       <c r="C98" t="n">
         <v>2.6806484489011</v>
@@ -5314,7 +5314,7 @@
         <v>264</v>
       </c>
       <c r="B99" t="n">
-        <v>-5.38262679652189</v>
+        <v>5.38262679652189</v>
       </c>
       <c r="C99" t="n">
         <v>2.42044279577946</v>
@@ -5340,7 +5340,7 @@
         <v>267</v>
       </c>
       <c r="B100" t="n">
-        <v>-5.01128454761376</v>
+        <v>5.01128454761376</v>
       </c>
       <c r="C100" t="n">
         <v>2.87385270557419</v>
@@ -5366,7 +5366,7 @@
         <v>270</v>
       </c>
       <c r="B101" t="n">
-        <v>-5.45275083532544</v>
+        <v>5.45275083532544</v>
       </c>
       <c r="C101" t="n">
         <v>2.22994287257951</v>
@@ -5392,7 +5392,7 @@
         <v>272</v>
       </c>
       <c r="B102" t="n">
-        <v>-5.16510132919788</v>
+        <v>5.16510132919788</v>
       </c>
       <c r="C102" t="n">
         <v>2.66015276129735</v>
@@ -5418,7 +5418,7 @@
         <v>275</v>
       </c>
       <c r="B103" t="n">
-        <v>-5.73689078170175</v>
+        <v>5.73689078170175</v>
       </c>
       <c r="C103" t="n">
         <v>1.5668480061389</v>
@@ -5444,7 +5444,7 @@
         <v>277</v>
       </c>
       <c r="B104" t="n">
-        <v>-5.65716115921171</v>
+        <v>5.65716115921171</v>
       </c>
       <c r="C104" t="n">
         <v>2.05983048498615</v>
@@ -5470,7 +5470,7 @@
         <v>279</v>
       </c>
       <c r="B105" t="n">
-        <v>-5.4716388401809</v>
+        <v>5.4716388401809</v>
       </c>
       <c r="C105" t="n">
         <v>1.84341342982648</v>
@@ -5496,7 +5496,7 @@
         <v>281</v>
       </c>
       <c r="B106" t="n">
-        <v>-4.98404007611381</v>
+        <v>4.98404007611381</v>
       </c>
       <c r="C106" t="n">
         <v>2.84768229521396</v>
@@ -5522,7 +5522,7 @@
         <v>284</v>
       </c>
       <c r="B107" t="n">
-        <v>-5.02280652588464</v>
+        <v>5.02280652588464</v>
       </c>
       <c r="C107" t="n">
         <v>2.75029351652786</v>
@@ -5548,7 +5548,7 @@
         <v>287</v>
       </c>
       <c r="B108" t="n">
-        <v>-5.45221193772985</v>
+        <v>5.45221193772985</v>
       </c>
       <c r="C108" t="n">
         <v>2.21197664324639</v>
@@ -5574,7 +5574,7 @@
         <v>290</v>
       </c>
       <c r="B109" t="n">
-        <v>-4.94572957121303</v>
+        <v>4.94572957121303</v>
       </c>
       <c r="C109" t="n">
         <v>2.84310024167901</v>
@@ -5600,7 +5600,7 @@
         <v>293</v>
       </c>
       <c r="B110" t="n">
-        <v>-5.44252611715063</v>
+        <v>5.44252611715063</v>
       </c>
       <c r="C110" t="n">
         <v>1.81585615038816</v>
@@ -5626,7 +5626,7 @@
         <v>296</v>
       </c>
       <c r="B111" t="n">
-        <v>-5.29269915009502</v>
+        <v>5.29269915009502</v>
       </c>
       <c r="C111" t="n">
         <v>2.02489856650368</v>
@@ -5652,7 +5652,7 @@
         <v>299</v>
       </c>
       <c r="B112" t="n">
-        <v>-5.21151028196897</v>
+        <v>5.21151028196897</v>
       </c>
       <c r="C112" t="n">
         <v>2.498270053263</v>
@@ -5678,7 +5678,7 @@
         <v>301</v>
       </c>
       <c r="B113" t="n">
-        <v>-5.2832316382623</v>
+        <v>5.2832316382623</v>
       </c>
       <c r="C113" t="n">
         <v>2.34077297169064</v>
@@ -5704,7 +5704,7 @@
         <v>303</v>
       </c>
       <c r="B114" t="n">
-        <v>-5.40265045780963</v>
+        <v>5.40265045780963</v>
       </c>
       <c r="C114" t="n">
         <v>2.1820826509379</v>
@@ -5730,7 +5730,7 @@
         <v>306</v>
       </c>
       <c r="B115" t="n">
-        <v>-4.77484607281112</v>
+        <v>4.77484607281112</v>
       </c>
       <c r="C115" t="n">
         <v>3.36314344953354</v>
@@ -5756,7 +5756,7 @@
         <v>308</v>
       </c>
       <c r="B116" t="n">
-        <v>-5.1318068843608</v>
+        <v>5.1318068843608</v>
       </c>
       <c r="C116" t="n">
         <v>2.47791463092075</v>
@@ -5782,7 +5782,7 @@
         <v>311</v>
       </c>
       <c r="B117" t="n">
-        <v>-5.61803806176999</v>
+        <v>5.61803806176999</v>
       </c>
       <c r="C117" t="n">
         <v>2.00261628196025</v>
@@ -5808,7 +5808,7 @@
         <v>314</v>
       </c>
       <c r="B118" t="n">
-        <v>-5.17171200713227</v>
+        <v>5.17171200713227</v>
       </c>
       <c r="C118" t="n">
         <v>2.47419659345457</v>
@@ -5834,7 +5834,7 @@
         <v>317</v>
       </c>
       <c r="B119" t="n">
-        <v>-4.97616603030614</v>
+        <v>4.97616603030614</v>
       </c>
       <c r="C119" t="n">
         <v>2.69396426412026</v>
@@ -5860,7 +5860,7 @@
         <v>320</v>
       </c>
       <c r="B120" t="n">
-        <v>-5.26030420924694</v>
+        <v>5.26030420924694</v>
       </c>
       <c r="C120" t="n">
         <v>2.30333640013542</v>
@@ -5886,7 +5886,7 @@
         <v>323</v>
       </c>
       <c r="B121" t="n">
-        <v>-5.39171752780905</v>
+        <v>5.39171752780905</v>
       </c>
       <c r="C121" t="n">
         <v>2.15426563220035</v>
@@ -5912,7 +5912,7 @@
         <v>326</v>
       </c>
       <c r="B122" t="n">
-        <v>-5.00685762088663</v>
+        <v>5.00685762088663</v>
       </c>
       <c r="C122" t="n">
         <v>2.68827971440727</v>
@@ -5938,7 +5938,7 @@
         <v>329</v>
       </c>
       <c r="B123" t="n">
-        <v>-4.91378366065387</v>
+        <v>4.91378366065387</v>
       </c>
       <c r="C123" t="n">
         <v>2.78024073902116</v>
@@ -5964,7 +5964,7 @@
         <v>331</v>
       </c>
       <c r="B124" t="n">
-        <v>-4.97804037337293</v>
+        <v>4.97804037337293</v>
       </c>
       <c r="C124" t="n">
         <v>2.68411384113478</v>
@@ -5990,7 +5990,7 @@
         <v>334</v>
       </c>
       <c r="B125" t="n">
-        <v>-5.37717219904069</v>
+        <v>5.37717219904069</v>
       </c>
       <c r="C125" t="n">
         <v>1.75416672551871</v>
@@ -6016,7 +6016,7 @@
         <v>336</v>
       </c>
       <c r="B126" t="n">
-        <v>-5.58160601115472</v>
+        <v>5.58160601115472</v>
       </c>
       <c r="C126" t="n">
         <v>1.96786112930915</v>
@@ -6042,7 +6042,7 @@
         <v>339</v>
       </c>
       <c r="B127" t="n">
-        <v>-5.21063630676164</v>
+        <v>5.21063630676164</v>
       </c>
       <c r="C127" t="n">
         <v>2.27146236999969</v>
@@ -6068,7 +6068,7 @@
         <v>341</v>
       </c>
       <c r="B128" t="n">
-        <v>-5.55294893232721</v>
+        <v>5.55294893232721</v>
       </c>
       <c r="C128" t="n">
         <v>1.94065228576958</v>
@@ -6094,7 +6094,7 @@
         <v>343</v>
       </c>
       <c r="B129" t="n">
-        <v>-5.55924311532258</v>
+        <v>5.55924311532258</v>
       </c>
       <c r="C129" t="n">
         <v>1.42338838986999</v>
@@ -6120,7 +6120,7 @@
         <v>345</v>
       </c>
       <c r="B130" t="n">
-        <v>-5.08148776205983</v>
+        <v>5.08148776205983</v>
       </c>
       <c r="C130" t="n">
         <v>2.40192558420712</v>
@@ -6146,7 +6146,7 @@
         <v>348</v>
       </c>
       <c r="B131" t="n">
-        <v>-4.93373774021517</v>
+        <v>4.93373774021517</v>
       </c>
       <c r="C131" t="n">
         <v>2.64161983438117</v>
@@ -6172,7 +6172,7 @@
         <v>351</v>
       </c>
       <c r="B132" t="n">
-        <v>-5.07735544509006</v>
+        <v>5.07735544509006</v>
       </c>
       <c r="C132" t="n">
         <v>2.39804187166732</v>
@@ -6198,7 +6198,7 @@
         <v>354</v>
       </c>
       <c r="B133" t="n">
-        <v>-5.34336259715213</v>
+        <v>5.34336259715213</v>
       </c>
       <c r="C133" t="n">
         <v>2.09069080930932</v>
@@ -6224,7 +6224,7 @@
         <v>357</v>
       </c>
       <c r="B134" t="n">
-        <v>-5.33583200893339</v>
+        <v>5.33583200893339</v>
       </c>
       <c r="C134" t="n">
         <v>2.08345216675812</v>
@@ -6250,7 +6250,7 @@
         <v>360</v>
       </c>
       <c r="B135" t="n">
-        <v>-4.97349548044162</v>
+        <v>4.97349548044162</v>
       </c>
       <c r="C135" t="n">
         <v>2.50213580773692</v>
@@ -6276,7 +6276,7 @@
         <v>363</v>
       </c>
       <c r="B136" t="n">
-        <v>-4.89967642596182</v>
+        <v>4.89967642596182</v>
       </c>
       <c r="C136" t="n">
         <v>2.60906524471964</v>
@@ -6302,7 +6302,7 @@
         <v>364</v>
       </c>
       <c r="B137" t="n">
-        <v>-5.00488951492072</v>
+        <v>5.00488951492072</v>
       </c>
       <c r="C137" t="n">
         <v>2.32892636737652</v>
@@ -6328,7 +6328,7 @@
         <v>367</v>
       </c>
       <c r="B138" t="n">
-        <v>-5.03228978832938</v>
+        <v>5.03228978832938</v>
       </c>
       <c r="C138" t="n">
         <v>2.3270118457147</v>
@@ -6354,7 +6354,7 @@
         <v>370</v>
       </c>
       <c r="B139" t="n">
-        <v>-4.75293885592066</v>
+        <v>4.75293885592066</v>
       </c>
       <c r="C139" t="n">
         <v>2.92480727623855</v>
@@ -6380,7 +6380,7 @@
         <v>373</v>
       </c>
       <c r="B140" t="n">
-        <v>-4.87914786565016</v>
+        <v>4.87914786565016</v>
       </c>
       <c r="C140" t="n">
         <v>2.57770097837224</v>
@@ -6406,7 +6406,7 @@
         <v>375</v>
       </c>
       <c r="B141" t="n">
-        <v>-4.99293911750406</v>
+        <v>4.99293911750406</v>
       </c>
       <c r="C141" t="n">
         <v>2.3175456686444</v>
@@ -6432,7 +6432,7 @@
         <v>377</v>
       </c>
       <c r="B142" t="n">
-        <v>-5.46028681691787</v>
+        <v>5.46028681691787</v>
       </c>
       <c r="C142" t="n">
         <v>1.8527718131542</v>
@@ -6458,7 +6458,7 @@
         <v>380</v>
       </c>
       <c r="B143" t="n">
-        <v>-5.25867675382335</v>
+        <v>5.25867675382335</v>
       </c>
       <c r="C143" t="n">
         <v>2.02764047572639</v>
@@ -6484,7 +6484,7 @@
         <v>383</v>
       </c>
       <c r="B144" t="n">
-        <v>-5.01064386352908</v>
+        <v>5.01064386352908</v>
       </c>
       <c r="C144" t="n">
         <v>2.30636625973225</v>
@@ -6510,7 +6510,7 @@
         <v>386</v>
       </c>
       <c r="B145" t="n">
-        <v>-4.97229985246414</v>
+        <v>4.97229985246414</v>
       </c>
       <c r="C145" t="n">
         <v>2.29786867150131</v>
@@ -6536,7 +6536,7 @@
         <v>388</v>
       </c>
       <c r="B146" t="n">
-        <v>-5.26856787998294</v>
+        <v>5.26856787998294</v>
       </c>
       <c r="C146" t="n">
         <v>2.01955782649744</v>
@@ -6562,7 +6562,7 @@
         <v>391</v>
       </c>
       <c r="B147" t="n">
-        <v>-4.56278060140621</v>
+        <v>4.56278060140621</v>
       </c>
       <c r="C147" t="n">
         <v>3.1816246919279</v>
@@ -6588,7 +6588,7 @@
         <v>394</v>
       </c>
       <c r="B148" t="n">
-        <v>-5.23718943536436</v>
+        <v>5.23718943536436</v>
       </c>
       <c r="C148" t="n">
         <v>2.0072641985316</v>
@@ -6614,7 +6614,7 @@
         <v>397</v>
       </c>
       <c r="B149" t="n">
-        <v>-5.07988359050932</v>
+        <v>5.07988359050932</v>
       </c>
       <c r="C149" t="n">
         <v>2.14703678161287</v>
@@ -6640,7 +6640,7 @@
         <v>400</v>
       </c>
       <c r="B150" t="n">
-        <v>-4.80781100996438</v>
+        <v>4.80781100996438</v>
       </c>
       <c r="C150" t="n">
         <v>2.54470567882771</v>
@@ -6666,7 +6666,7 @@
         <v>403</v>
       </c>
       <c r="B151" t="n">
-        <v>-4.84341798302922</v>
+        <v>4.84341798302922</v>
       </c>
       <c r="C151" t="n">
         <v>2.54357970213519</v>
@@ -6692,7 +6692,7 @@
         <v>406</v>
       </c>
       <c r="B152" t="n">
-        <v>-5.1962049261489</v>
+        <v>5.1962049261489</v>
       </c>
       <c r="C152" t="n">
         <v>1.58390817034851</v>
@@ -6718,7 +6718,7 @@
         <v>408</v>
       </c>
       <c r="B153" t="n">
-        <v>-5.06866282482944</v>
+        <v>5.06866282482944</v>
       </c>
       <c r="C153" t="n">
         <v>2.13626606248645</v>
@@ -6744,7 +6744,7 @@
         <v>410</v>
       </c>
       <c r="B154" t="n">
-        <v>-4.94976050125556</v>
+        <v>4.94976050125556</v>
       </c>
       <c r="C154" t="n">
         <v>2.26246865939602</v>
@@ -6770,7 +6770,7 @@
         <v>413</v>
       </c>
       <c r="B155" t="n">
-        <v>-4.95997800467196</v>
+        <v>4.95997800467196</v>
       </c>
       <c r="C155" t="n">
         <v>2.25815564136815</v>
@@ -6796,7 +6796,7 @@
         <v>415</v>
       </c>
       <c r="B156" t="n">
-        <v>-4.9448770378848</v>
+        <v>4.9448770378848</v>
       </c>
       <c r="C156" t="n">
         <v>1.98770972756518</v>
@@ -6822,7 +6822,7 @@
         <v>417</v>
       </c>
       <c r="B157" t="n">
-        <v>-5.16534098844664</v>
+        <v>5.16534098844664</v>
       </c>
       <c r="C157" t="n">
         <v>1.55505609510435</v>
@@ -6848,7 +6848,7 @@
         <v>420</v>
       </c>
       <c r="B158" t="n">
-        <v>-5.05283914813969</v>
+        <v>5.05283914813969</v>
       </c>
       <c r="C158" t="n">
         <v>2.12125935679601</v>
@@ -6874,7 +6874,7 @@
         <v>422</v>
       </c>
       <c r="B159" t="n">
-        <v>-5.05141190477644</v>
+        <v>5.05141190477644</v>
       </c>
       <c r="C159" t="n">
         <v>2.11996203710476</v>
@@ -6900,7 +6900,7 @@
         <v>425</v>
       </c>
       <c r="B160" t="n">
-        <v>-4.67787712832481</v>
+        <v>4.67787712832481</v>
       </c>
       <c r="C160" t="n">
         <v>2.68617130555737</v>
@@ -6926,7 +6926,7 @@
         <v>428</v>
       </c>
       <c r="B161" t="n">
-        <v>-4.56319827177004</v>
+        <v>4.56319827177004</v>
       </c>
       <c r="C161" t="n">
         <v>2.84211685495614</v>
@@ -6952,7 +6952,7 @@
         <v>430</v>
       </c>
       <c r="B162" t="n">
-        <v>-4.71885773506277</v>
+        <v>4.71885773506277</v>
       </c>
       <c r="C162" t="n">
         <v>2.59386049082814</v>
@@ -6978,7 +6978,7 @@
         <v>433</v>
       </c>
       <c r="B163" t="n">
-        <v>-4.77471231807881</v>
+        <v>4.77471231807881</v>
       </c>
       <c r="C163" t="n">
         <v>2.48982874545085</v>
@@ -7004,7 +7004,7 @@
         <v>436</v>
       </c>
       <c r="B164" t="n">
-        <v>-4.67035159797619</v>
+        <v>4.67035159797619</v>
       </c>
       <c r="C164" t="n">
         <v>2.67899816308208</v>
@@ -7030,7 +7030,7 @@
         <v>438</v>
       </c>
       <c r="B165" t="n">
-        <v>-5.01348626184731</v>
+        <v>5.01348626184731</v>
       </c>
       <c r="C165" t="n">
         <v>1.76082053548402</v>
@@ -7056,7 +7056,7 @@
         <v>441</v>
       </c>
       <c r="B166" t="n">
-        <v>-4.80440545007545</v>
+        <v>4.80440545007545</v>
       </c>
       <c r="C166" t="n">
         <v>2.35377348294545</v>
@@ -7082,7 +7082,7 @@
         <v>444</v>
       </c>
       <c r="B167" t="n">
-        <v>-4.90521046134479</v>
+        <v>4.90521046134479</v>
       </c>
       <c r="C167" t="n">
         <v>2.22015083795128</v>
@@ -7108,7 +7108,7 @@
         <v>446</v>
       </c>
       <c r="B168" t="n">
-        <v>-4.70782444904852</v>
+        <v>4.70782444904852</v>
       </c>
       <c r="C168" t="n">
         <v>2.58335077329388</v>
@@ -7134,7 +7134,7 @@
         <v>449</v>
       </c>
       <c r="B169" t="n">
-        <v>-5.3463379679135</v>
+        <v>5.3463379679135</v>
       </c>
       <c r="C169" t="n">
         <v>1.74522071108743</v>
@@ -7160,7 +7160,7 @@
         <v>452</v>
       </c>
       <c r="B170" t="n">
-        <v>-5.0289331881782</v>
+        <v>5.0289331881782</v>
       </c>
       <c r="C170" t="n">
         <v>2.08302624908785</v>
@@ -7186,7 +7186,7 @@
         <v>454</v>
       </c>
       <c r="B171" t="n">
-        <v>-4.75247251497409</v>
+        <v>4.75247251497409</v>
       </c>
       <c r="C171" t="n">
         <v>2.46869248122763</v>
@@ -7212,7 +7212,7 @@
         <v>457</v>
       </c>
       <c r="B172" t="n">
-        <v>-4.48999176123163</v>
+        <v>4.48999176123163</v>
       </c>
       <c r="C172" t="n">
         <v>2.96530899131059</v>
@@ -7238,7 +7238,7 @@
         <v>460</v>
       </c>
       <c r="B173" t="n">
-        <v>-4.89988832463734</v>
+        <v>4.89988832463734</v>
       </c>
       <c r="C173" t="n">
         <v>2.20098844166348</v>
@@ -7264,7 +7264,7 @@
         <v>462</v>
       </c>
       <c r="B174" t="n">
-        <v>-4.68540173535465</v>
+        <v>4.68540173535465</v>
       </c>
       <c r="C174" t="n">
         <v>2.56202840387909</v>
@@ -7290,7 +7290,7 @@
         <v>464</v>
       </c>
       <c r="B175" t="n">
-        <v>-5.10222116001713</v>
+        <v>5.10222116001713</v>
       </c>
       <c r="C175" t="n">
         <v>1.49617287796307</v>
@@ -7316,7 +7316,7 @@
         <v>467</v>
       </c>
       <c r="B176" t="n">
-        <v>-4.85619768356983</v>
+        <v>4.85619768356983</v>
       </c>
       <c r="C176" t="n">
         <v>2.20166549841165</v>
@@ -7342,7 +7342,7 @@
         <v>470</v>
       </c>
       <c r="B177" t="n">
-        <v>-4.67151838416665</v>
+        <v>4.67151838416665</v>
       </c>
       <c r="C177" t="n">
         <v>2.7302086079594</v>
@@ -7368,7 +7368,7 @@
         <v>473</v>
       </c>
       <c r="B178" t="n">
-        <v>-4.71557514358796</v>
+        <v>4.71557514358796</v>
       </c>
       <c r="C178" t="n">
         <v>2.44524794171363</v>
@@ -7394,7 +7394,7 @@
         <v>475</v>
       </c>
       <c r="B179" t="n">
-        <v>-4.85644075971338</v>
+        <v>4.85644075971338</v>
       </c>
       <c r="C179" t="n">
         <v>2.18789227375308</v>
@@ -7420,7 +7420,7 @@
         <v>478</v>
       </c>
       <c r="B180" t="n">
-        <v>-4.97964889328175</v>
+        <v>4.97964889328175</v>
       </c>
       <c r="C180" t="n">
         <v>2.0519811184859</v>
@@ -7446,7 +7446,7 @@
         <v>481</v>
       </c>
       <c r="B181" t="n">
-        <v>-4.97295829814524</v>
+        <v>4.97295829814524</v>
       </c>
       <c r="C181" t="n">
         <v>2.04561560864216</v>
@@ -7472,7 +7472,7 @@
         <v>484</v>
       </c>
       <c r="B182" t="n">
-        <v>-4.6663890857822</v>
+        <v>4.6663890857822</v>
       </c>
       <c r="C182" t="n">
         <v>2.53300284420257</v>
@@ -7498,7 +7498,7 @@
         <v>486</v>
       </c>
       <c r="B183" t="n">
-        <v>-4.63009672571436</v>
+        <v>4.63009672571436</v>
       </c>
       <c r="C183" t="n">
         <v>2.52024833842127</v>
@@ -7524,7 +7524,7 @@
         <v>488</v>
       </c>
       <c r="B184" t="n">
-        <v>-4.83713994956352</v>
+        <v>4.83713994956352</v>
       </c>
       <c r="C184" t="n">
         <v>2.15556287745394</v>
@@ -7550,7 +7550,7 @@
         <v>490</v>
       </c>
       <c r="B185" t="n">
-        <v>-4.94082632773254</v>
+        <v>4.94082632773254</v>
       </c>
       <c r="C185" t="n">
         <v>2.03073259708416</v>
@@ -7576,7 +7576,7 @@
         <v>492</v>
       </c>
       <c r="B186" t="n">
-        <v>-5.11179676947323</v>
+        <v>5.11179676947323</v>
       </c>
       <c r="C186" t="n">
         <v>1.87106731491966</v>
@@ -7602,7 +7602,7 @@
         <v>495</v>
       </c>
       <c r="B187" t="n">
-        <v>-4.94963610696907</v>
+        <v>4.94963610696907</v>
       </c>
       <c r="C187" t="n">
         <v>2.02353514763197</v>
@@ -7628,7 +7628,7 @@
         <v>497</v>
       </c>
       <c r="B188" t="n">
-        <v>-4.92259228643534</v>
+        <v>4.92259228643534</v>
       </c>
       <c r="C188" t="n">
         <v>2.0136425324637</v>
@@ -7654,7 +7654,7 @@
         <v>499</v>
       </c>
       <c r="B189" t="n">
-        <v>-4.63717211760117</v>
+        <v>4.63717211760117</v>
       </c>
       <c r="C189" t="n">
         <v>2.38257132262257</v>
@@ -7680,7 +7680,7 @@
         <v>501</v>
       </c>
       <c r="B190" t="n">
-        <v>-4.64422494610088</v>
+        <v>4.64422494610088</v>
       </c>
       <c r="C190" t="n">
         <v>2.37757583286183</v>
@@ -7706,7 +7706,7 @@
         <v>504</v>
       </c>
       <c r="B191" t="n">
-        <v>-5.08151957244566</v>
+        <v>5.08151957244566</v>
       </c>
       <c r="C191" t="n">
         <v>1.84245538063133</v>
@@ -7732,7 +7732,7 @@
         <v>506</v>
       </c>
       <c r="B192" t="n">
-        <v>-4.80970444195263</v>
+        <v>4.80970444195263</v>
       </c>
       <c r="C192" t="n">
         <v>2.12958437545129</v>
@@ -7758,7 +7758,7 @@
         <v>509</v>
       </c>
       <c r="B193" t="n">
-        <v>-4.46086112631608</v>
+        <v>4.46086112631608</v>
       </c>
       <c r="C193" t="n">
         <v>2.87761622317019</v>
@@ -7784,7 +7784,7 @@
         <v>511</v>
       </c>
       <c r="B194" t="n">
-        <v>-4.80204542168027</v>
+        <v>4.80204542168027</v>
       </c>
       <c r="C194" t="n">
         <v>2.12236656720636</v>
@@ -7810,7 +7810,7 @@
         <v>514</v>
       </c>
       <c r="B195" t="n">
-        <v>-4.64695026725407</v>
+        <v>4.64695026725407</v>
       </c>
       <c r="C195" t="n">
         <v>2.20463599130749</v>
@@ -7836,7 +7836,7 @@
         <v>517</v>
       </c>
       <c r="B196" t="n">
-        <v>-4.52807485894266</v>
+        <v>4.52807485894266</v>
       </c>
       <c r="C196" t="n">
         <v>2.43424562409302</v>
@@ -7862,7 +7862,7 @@
         <v>519</v>
       </c>
       <c r="B197" t="n">
-        <v>-5.17253819854592</v>
+        <v>5.17253819854592</v>
       </c>
       <c r="C197" t="n">
         <v>1.58193434463905</v>
@@ -7888,7 +7888,7 @@
         <v>522</v>
       </c>
       <c r="B198" t="n">
-        <v>-4.49020228756848</v>
+        <v>4.49020228756848</v>
       </c>
       <c r="C198" t="n">
         <v>2.52783241918948</v>
@@ -7914,7 +7914,7 @@
         <v>525</v>
       </c>
       <c r="B199" t="n">
-        <v>-4.57918485654238</v>
+        <v>4.57918485654238</v>
       </c>
       <c r="C199" t="n">
         <v>2.30427900941274</v>
@@ -7940,7 +7940,7 @@
         <v>528</v>
       </c>
       <c r="B200" t="n">
-        <v>-4.61505034885334</v>
+        <v>4.61505034885334</v>
       </c>
       <c r="C200" t="n">
         <v>2.1873060445839</v>
@@ -7966,7 +7966,7 @@
         <v>529</v>
       </c>
       <c r="B201" t="n">
-        <v>-4.85262829638955</v>
+        <v>4.85262829638955</v>
       </c>
       <c r="C201" t="n">
         <v>1.93195619527827</v>
@@ -7992,7 +7992,7 @@
         <v>532</v>
       </c>
       <c r="B202" t="n">
-        <v>-4.55006227822855</v>
+        <v>4.55006227822855</v>
       </c>
       <c r="C202" t="n">
         <v>2.28851412360161</v>
@@ -8018,7 +8018,7 @@
         <v>535</v>
       </c>
       <c r="B203" t="n">
-        <v>-4.61547789658084</v>
+        <v>4.61547789658084</v>
       </c>
       <c r="C203" t="n">
         <v>2.17493028998465</v>
@@ -8044,7 +8044,7 @@
         <v>538</v>
       </c>
       <c r="B204" t="n">
-        <v>-4.85320858122698</v>
+        <v>4.85320858122698</v>
       </c>
       <c r="C204" t="n">
         <v>1.91684074396118</v>
@@ -8070,7 +8070,7 @@
         <v>541</v>
       </c>
       <c r="B205" t="n">
-        <v>-4.72809088384413</v>
+        <v>4.72809088384413</v>
       </c>
       <c r="C205" t="n">
         <v>2.05252148906296</v>
@@ -8096,7 +8096,7 @@
         <v>544</v>
       </c>
       <c r="B206" t="n">
-        <v>-4.56132855505002</v>
+        <v>4.56132855505002</v>
       </c>
       <c r="C206" t="n">
         <v>2.27571576218314</v>
@@ -8122,7 +8122,7 @@
         <v>547</v>
       </c>
       <c r="B207" t="n">
-        <v>-4.95630345233831</v>
+        <v>4.95630345233831</v>
       </c>
       <c r="C207" t="n">
         <v>1.74232289074252</v>
@@ -8148,7 +8148,7 @@
         <v>550</v>
       </c>
       <c r="B208" t="n">
-        <v>-4.94250973081343</v>
+        <v>4.94250973081343</v>
       </c>
       <c r="C208" t="n">
         <v>1.72932555514059</v>
@@ -8174,7 +8174,7 @@
         <v>552</v>
       </c>
       <c r="B209" t="n">
-        <v>-4.77578127198799</v>
+        <v>4.77578127198799</v>
       </c>
       <c r="C209" t="n">
         <v>1.89095005865103</v>
@@ -8200,7 +8200,7 @@
         <v>555</v>
       </c>
       <c r="B210" t="n">
-        <v>-4.92688552242982</v>
+        <v>4.92688552242982</v>
       </c>
       <c r="C210" t="n">
         <v>1.71471821664238</v>
@@ -8226,7 +8226,7 @@
         <v>557</v>
       </c>
       <c r="B211" t="n">
-        <v>-4.65525397554734</v>
+        <v>4.65525397554734</v>
       </c>
       <c r="C211" t="n">
         <v>2.02599109832083</v>
@@ -8252,7 +8252,7 @@
         <v>560</v>
       </c>
       <c r="B212" t="n">
-        <v>-4.78989041751455</v>
+        <v>4.78989041751455</v>
       </c>
       <c r="C212" t="n">
         <v>1.87289620698285</v>
@@ -8278,7 +8278,7 @@
         <v>563</v>
       </c>
       <c r="B213" t="n">
-        <v>-5.0847131792958</v>
+        <v>5.0847131792958</v>
       </c>
       <c r="C213" t="n">
         <v>1.49992746054457</v>
@@ -8304,7 +8304,7 @@
         <v>565</v>
       </c>
       <c r="B214" t="n">
-        <v>-4.42800408087223</v>
+        <v>4.42800408087223</v>
       </c>
       <c r="C214" t="n">
         <v>2.61520108872017</v>
@@ -8330,7 +8330,7 @@
         <v>567</v>
       </c>
       <c r="B215" t="n">
-        <v>-4.64622057932941</v>
+        <v>4.64622057932941</v>
       </c>
       <c r="C215" t="n">
         <v>2.00350166716929</v>
@@ -8356,7 +8356,7 @@
         <v>570</v>
       </c>
       <c r="B216" t="n">
-        <v>-4.42852282850419</v>
+        <v>4.42852282850419</v>
       </c>
       <c r="C216" t="n">
         <v>2.32938770252809</v>
@@ -8382,7 +8382,7 @@
         <v>572</v>
       </c>
       <c r="B217" t="n">
-        <v>-4.41728769983654</v>
+        <v>4.41728769983654</v>
       </c>
       <c r="C217" t="n">
         <v>2.31878576056844</v>
@@ -8408,7 +8408,7 @@
         <v>573</v>
       </c>
       <c r="B218" t="n">
-        <v>-4.37000490791215</v>
+        <v>4.37000490791215</v>
       </c>
       <c r="C218" t="n">
         <v>2.52258402990733</v>
@@ -8434,7 +8434,7 @@
         <v>575</v>
       </c>
       <c r="B219" t="n">
-        <v>-4.45391022844842</v>
+        <v>4.45391022844842</v>
       </c>
       <c r="C219" t="n">
         <v>2.20949812265642</v>
@@ -8460,7 +8460,7 @@
         <v>578</v>
       </c>
       <c r="B220" t="n">
-        <v>-4.76759856205313</v>
+        <v>4.76759856205313</v>
       </c>
       <c r="C220" t="n">
         <v>1.8363558343101</v>
@@ -8486,7 +8486,7 @@
         <v>581</v>
       </c>
       <c r="B221" t="n">
-        <v>-4.88404281875808</v>
+        <v>4.88404281875808</v>
       </c>
       <c r="C221" t="n">
         <v>1.65708449463198</v>
@@ -8512,7 +8512,7 @@
         <v>584</v>
       </c>
       <c r="B222" t="n">
-        <v>-4.44670511618319</v>
+        <v>4.44670511618319</v>
       </c>
       <c r="C222" t="n">
         <v>2.19111596810441</v>
@@ -8538,7 +8538,7 @@
         <v>587</v>
       </c>
       <c r="B223" t="n">
-        <v>-4.83439386697035</v>
+        <v>4.83439386697035</v>
       </c>
       <c r="C223" t="n">
         <v>1.64572167433462</v>
@@ -8564,7 +8564,7 @@
         <v>590</v>
       </c>
       <c r="B224" t="n">
-        <v>-4.38816796434575</v>
+        <v>4.38816796434575</v>
       </c>
       <c r="C224" t="n">
         <v>2.29138278303032</v>
@@ -8590,7 +8590,7 @@
         <v>593</v>
       </c>
       <c r="B225" t="n">
-        <v>-4.72398252384384</v>
+        <v>4.72398252384384</v>
       </c>
       <c r="C225" t="n">
         <v>1.81115348637031</v>
@@ -8616,7 +8616,7 @@
         <v>594</v>
       </c>
       <c r="B226" t="n">
-        <v>-4.84259697478154</v>
+        <v>4.84259697478154</v>
       </c>
       <c r="C226" t="n">
         <v>1.63579580996321</v>
@@ -8642,7 +8642,7 @@
         <v>597</v>
       </c>
       <c r="B227" t="n">
-        <v>-4.34200181184526</v>
+        <v>4.34200181184526</v>
       </c>
       <c r="C227" t="n">
         <v>2.38774481967575</v>
@@ -8668,7 +8668,7 @@
         <v>599</v>
       </c>
       <c r="B228" t="n">
-        <v>-4.3300424694371</v>
+        <v>4.3300424694371</v>
       </c>
       <c r="C228" t="n">
         <v>2.38652652116698</v>
@@ -8694,7 +8694,7 @@
         <v>601</v>
       </c>
       <c r="B229" t="n">
-        <v>-4.85552898620541</v>
+        <v>4.85552898620541</v>
       </c>
       <c r="C229" t="n">
         <v>1.63037899974726</v>
@@ -8720,7 +8720,7 @@
         <v>603</v>
       </c>
       <c r="B230" t="n">
-        <v>-4.82830559068903</v>
+        <v>4.82830559068903</v>
       </c>
       <c r="C230" t="n">
         <v>1.6226465963015</v>
@@ -8746,7 +8746,7 @@
         <v>606</v>
       </c>
       <c r="B231" t="n">
-        <v>-4.83651263371125</v>
+        <v>4.83651263371125</v>
       </c>
       <c r="C231" t="n">
         <v>1.6126119980693</v>
@@ -8772,7 +8772,7 @@
         <v>609</v>
       </c>
       <c r="B232" t="n">
-        <v>-4.83018153114507</v>
+        <v>4.83018153114507</v>
       </c>
       <c r="C232" t="n">
         <v>1.60669960155864</v>
@@ -8798,7 +8798,7 @@
         <v>612</v>
       </c>
       <c r="B233" t="n">
-        <v>-4.67213667309053</v>
+        <v>4.67213667309053</v>
       </c>
       <c r="C233" t="n">
         <v>1.77817415135371</v>
@@ -8824,7 +8824,7 @@
         <v>613</v>
       </c>
       <c r="B234" t="n">
-        <v>-4.42058446237922</v>
+        <v>4.42058446237922</v>
       </c>
       <c r="C234" t="n">
         <v>2.15478850251522</v>
@@ -8850,7 +8850,7 @@
         <v>615</v>
       </c>
       <c r="B235" t="n">
-        <v>-4.4902460238372</v>
+        <v>4.4902460238372</v>
       </c>
       <c r="C235" t="n">
         <v>2.04433335098864</v>
@@ -8876,7 +8876,7 @@
         <v>617</v>
       </c>
       <c r="B236" t="n">
-        <v>-4.48485596481074</v>
+        <v>4.48485596481074</v>
       </c>
       <c r="C236" t="n">
         <v>2.03927743019213</v>
@@ -8902,7 +8902,7 @@
         <v>619</v>
       </c>
       <c r="B237" t="n">
-        <v>-4.33058235743431</v>
+        <v>4.33058235743431</v>
       </c>
       <c r="C237" t="n">
         <v>2.53238973240983</v>
@@ -8928,7 +8928,7 @@
         <v>622</v>
       </c>
       <c r="B238" t="n">
-        <v>-4.37761296039974</v>
+        <v>4.37761296039974</v>
       </c>
       <c r="C238" t="n">
         <v>2.13785720488886</v>
@@ -8954,7 +8954,7 @@
         <v>625</v>
       </c>
       <c r="B239" t="n">
-        <v>-4.48554401495524</v>
+        <v>4.48554401495524</v>
       </c>
       <c r="C239" t="n">
         <v>2.02713594648224</v>
@@ -8980,7 +8980,7 @@
         <v>628</v>
       </c>
       <c r="B240" t="n">
-        <v>-4.74314765439137</v>
+        <v>4.74314765439137</v>
       </c>
       <c r="C240" t="n">
         <v>1.5782864148905</v>
@@ -9006,7 +9006,7 @@
         <v>631</v>
       </c>
       <c r="B241" t="n">
-        <v>-4.75850741064428</v>
+        <v>4.75850741064428</v>
       </c>
       <c r="C241" t="n">
         <v>1.57501793078991</v>
@@ -9032,7 +9032,7 @@
         <v>634</v>
       </c>
       <c r="B242" t="n">
-        <v>-4.54567658884232</v>
+        <v>4.54567658884232</v>
       </c>
       <c r="C242" t="n">
         <v>1.89525804320478</v>
@@ -9058,7 +9058,7 @@
         <v>636</v>
       </c>
       <c r="B243" t="n">
-        <v>-4.430600018524</v>
+        <v>4.430600018524</v>
       </c>
       <c r="C243" t="n">
         <v>2.01399921902968</v>
@@ -9084,7 +9084,7 @@
         <v>638</v>
       </c>
       <c r="B244" t="n">
-        <v>-4.38602776241364</v>
+        <v>4.38602776241364</v>
       </c>
       <c r="C244" t="n">
         <v>2.11061832528313</v>
@@ -9110,7 +9110,7 @@
         <v>639</v>
       </c>
       <c r="B245" t="n">
-        <v>-4.74765071962313</v>
+        <v>4.74765071962313</v>
       </c>
       <c r="C245" t="n">
         <v>1.54741807233236</v>
@@ -9136,7 +9136,7 @@
         <v>641</v>
       </c>
       <c r="B246" t="n">
-        <v>-4.45640850514446</v>
+        <v>4.45640850514446</v>
       </c>
       <c r="C246" t="n">
         <v>1.99973427228886</v>
@@ -9162,7 +9162,7 @@
         <v>642</v>
       </c>
       <c r="B247" t="n">
-        <v>-4.43823920012635</v>
+        <v>4.43823920012635</v>
       </c>
       <c r="C247" t="n">
         <v>1.99557808209564</v>
@@ -9188,7 +9188,7 @@
         <v>643</v>
       </c>
       <c r="B248" t="n">
-        <v>-4.48640681010713</v>
+        <v>4.48640681010713</v>
       </c>
       <c r="C248" t="n">
         <v>1.85382549890326</v>
@@ -9214,7 +9214,7 @@
         <v>645</v>
       </c>
       <c r="B249" t="n">
-        <v>-4.51631245237329</v>
+        <v>4.51631245237329</v>
       </c>
       <c r="C249" t="n">
         <v>1.85364633713315</v>
@@ -9240,7 +9240,7 @@
         <v>648</v>
       </c>
       <c r="B250" t="n">
-        <v>-4.32626436449396</v>
+        <v>4.32626436449396</v>
       </c>
       <c r="C250" t="n">
         <v>2.08974315678711</v>
@@ -9266,7 +9266,7 @@
         <v>651</v>
       </c>
       <c r="B251" t="n">
-        <v>-4.41866022700219</v>
+        <v>4.41866022700219</v>
       </c>
       <c r="C251" t="n">
         <v>1.97734276308957</v>
@@ -9292,7 +9292,7 @@
         <v>653</v>
       </c>
       <c r="B252" t="n">
-        <v>-4.4459503379581</v>
+        <v>4.4459503379581</v>
       </c>
       <c r="C252" t="n">
         <v>1.97714684327846</v>
@@ -9318,7 +9318,7 @@
         <v>656</v>
       </c>
       <c r="B253" t="n">
-        <v>-4.47143117352725</v>
+        <v>4.47143117352725</v>
       </c>
       <c r="C253" t="n">
         <v>1.82589407936433</v>
@@ -9344,7 +9344,7 @@
         <v>659</v>
       </c>
       <c r="B254" t="n">
-        <v>-4.66743364215244</v>
+        <v>4.66743364215244</v>
       </c>
       <c r="C254" t="n">
         <v>1.49044823636952</v>
@@ -9370,7 +9370,7 @@
         <v>662</v>
       </c>
       <c r="B255" t="n">
-        <v>-4.47167867251642</v>
+        <v>4.47167867251642</v>
       </c>
       <c r="C255" t="n">
         <v>1.81201677097068</v>
@@ -9396,7 +9396,7 @@
         <v>663</v>
       </c>
       <c r="B256" t="n">
-        <v>-4.28889688430565</v>
+        <v>4.28889688430565</v>
       </c>
       <c r="C256" t="n">
         <v>2.05478527891077</v>
@@ -9422,7 +9422,7 @@
         <v>666</v>
       </c>
       <c r="B257" t="n">
-        <v>-4.38079719977248</v>
+        <v>4.38079719977248</v>
       </c>
       <c r="C257" t="n">
         <v>1.9290467659811</v>
@@ -9448,7 +9448,7 @@
         <v>669</v>
       </c>
       <c r="B258" t="n">
-        <v>-3.95547134247702</v>
+        <v>3.95547134247702</v>
       </c>
       <c r="C258" t="n">
         <v>2.91563406287515</v>
@@ -9474,7 +9474,7 @@
         <v>672</v>
       </c>
       <c r="B259" t="n">
-        <v>-4.33616991213307</v>
+        <v>4.33616991213307</v>
       </c>
       <c r="C259" t="n">
         <v>1.91301581174886</v>
@@ -9500,7 +9500,7 @@
         <v>675</v>
       </c>
       <c r="B260" t="n">
-        <v>-4.24713479529515</v>
+        <v>4.24713479529515</v>
       </c>
       <c r="C260" t="n">
         <v>2.02749391570969</v>
@@ -9526,7 +9526,7 @@
         <v>677</v>
       </c>
       <c r="B261" t="n">
-        <v>-4.41136783152637</v>
+        <v>4.41136783152637</v>
       </c>
       <c r="C261" t="n">
         <v>1.7699555380229</v>
@@ -9552,7 +9552,7 @@
         <v>680</v>
       </c>
       <c r="B262" t="n">
-        <v>-4.51314144866312</v>
+        <v>4.51314144866312</v>
       </c>
       <c r="C262" t="n">
         <v>1.61459926613159</v>
@@ -9578,7 +9578,7 @@
         <v>683</v>
       </c>
       <c r="B263" t="n">
-        <v>-4.13011471684366</v>
+        <v>4.13011471684366</v>
       </c>
       <c r="C263" t="n">
         <v>2.198925510604</v>
@@ -9604,7 +9604,7 @@
         <v>686</v>
       </c>
       <c r="B264" t="n">
-        <v>-4.17111382757098</v>
+        <v>4.17111382757098</v>
       </c>
       <c r="C264" t="n">
         <v>2.10943693344596</v>
@@ -9630,7 +9630,7 @@
         <v>689</v>
       </c>
       <c r="B265" t="n">
-        <v>-4.1864789863758</v>
+        <v>4.1864789863758</v>
       </c>
       <c r="C265" t="n">
         <v>2.09137305654957</v>
@@ -9656,7 +9656,7 @@
         <v>692</v>
       </c>
       <c r="B266" t="n">
-        <v>-4.32493794854284</v>
+        <v>4.32493794854284</v>
       </c>
       <c r="C266" t="n">
         <v>1.8768803267574</v>
@@ -9682,7 +9682,7 @@
         <v>695</v>
       </c>
       <c r="B267" t="n">
-        <v>-4.19055807335932</v>
+        <v>4.19055807335932</v>
       </c>
       <c r="C267" t="n">
         <v>2.26546127056573</v>
@@ -9708,7 +9708,7 @@
         <v>698</v>
       </c>
       <c r="B268" t="n">
-        <v>-4.29004603637784</v>
+        <v>4.29004603637784</v>
       </c>
       <c r="C268" t="n">
         <v>1.87007941968891</v>
@@ -9734,7 +9734,7 @@
         <v>701</v>
       </c>
       <c r="B269" t="n">
-        <v>-4.45170657905908</v>
+        <v>4.45170657905908</v>
       </c>
       <c r="C269" t="n">
         <v>1.57322544981042</v>
@@ -9760,7 +9760,7 @@
         <v>704</v>
       </c>
       <c r="B270" t="n">
-        <v>-4.3749520201878</v>
+        <v>4.3749520201878</v>
       </c>
       <c r="C270" t="n">
         <v>1.7219166485581</v>
@@ -9786,7 +9786,7 @@
         <v>707</v>
       </c>
       <c r="B271" t="n">
-        <v>-4.34111088062701</v>
+        <v>4.34111088062701</v>
       </c>
       <c r="C271" t="n">
         <v>1.71866252387215</v>
@@ -9812,7 +9812,7 @@
         <v>709</v>
       </c>
       <c r="B272" t="n">
-        <v>-4.308846388129</v>
+        <v>4.308846388129</v>
       </c>
       <c r="C272" t="n">
         <v>1.84904429265535</v>
@@ -9838,7 +9838,7 @@
         <v>710</v>
       </c>
       <c r="B273" t="n">
-        <v>-4.4192997676711</v>
+        <v>4.4192997676711</v>
       </c>
       <c r="C273" t="n">
         <v>1.54332643244137</v>
@@ -9864,7 +9864,7 @@
         <v>713</v>
       </c>
       <c r="B274" t="n">
-        <v>-4.08431703752681</v>
+        <v>4.08431703752681</v>
       </c>
       <c r="C274" t="n">
         <v>2.39795849338075</v>
@@ -9890,7 +9890,7 @@
         <v>715</v>
       </c>
       <c r="B275" t="n">
-        <v>-4.17305017210264</v>
+        <v>4.17305017210264</v>
       </c>
       <c r="C275" t="n">
         <v>1.94679945744802</v>
@@ -9916,7 +9916,7 @@
         <v>716</v>
       </c>
       <c r="B276" t="n">
-        <v>-4.26470326257828</v>
+        <v>4.26470326257828</v>
       </c>
       <c r="C276" t="n">
         <v>1.82093348408973</v>
@@ -9942,7 +9942,7 @@
         <v>718</v>
       </c>
       <c r="B277" t="n">
-        <v>-4.08453842167397</v>
+        <v>4.08453842167397</v>
       </c>
       <c r="C277" t="n">
         <v>2.30112919367179</v>
@@ -9968,7 +9968,7 @@
         <v>721</v>
       </c>
       <c r="B278" t="n">
-        <v>-4.32558239612089</v>
+        <v>4.32558239612089</v>
       </c>
       <c r="C278" t="n">
         <v>1.66211796410615</v>
@@ -9994,7 +9994,7 @@
         <v>724</v>
       </c>
       <c r="B279" t="n">
-        <v>-3.94399172927707</v>
+        <v>3.94399172927707</v>
       </c>
       <c r="C279" t="n">
         <v>2.58800637312648</v>
@@ -10020,7 +10020,7 @@
         <v>727</v>
       </c>
       <c r="B280" t="n">
-        <v>-4.20791130665727</v>
+        <v>4.20791130665727</v>
       </c>
       <c r="C280" t="n">
         <v>1.78107786252814</v>
@@ -10046,7 +10046,7 @@
         <v>730</v>
       </c>
       <c r="B281" t="n">
-        <v>-4.02388349050618</v>
+        <v>4.02388349050618</v>
       </c>
       <c r="C281" t="n">
         <v>2.34144836356952</v>
@@ -10072,7 +10072,7 @@
         <v>733</v>
       </c>
       <c r="B282" t="n">
-        <v>-4.10190745950883</v>
+        <v>4.10190745950883</v>
       </c>
       <c r="C282" t="n">
         <v>1.88083964431821</v>
@@ -10098,7 +10098,7 @@
         <v>736</v>
       </c>
       <c r="B283" t="n">
-        <v>-4.17845896696821</v>
+        <v>4.17845896696821</v>
       </c>
       <c r="C283" t="n">
         <v>1.75379930723201</v>
@@ -10124,7 +10124,7 @@
         <v>739</v>
       </c>
       <c r="B284" t="n">
-        <v>-4.04127669929639</v>
+        <v>4.04127669929639</v>
       </c>
       <c r="C284" t="n">
         <v>1.97797367354041</v>
@@ -10150,7 +10150,7 @@
         <v>742</v>
       </c>
       <c r="B285" t="n">
-        <v>-4.13452148229099</v>
+        <v>4.13452148229099</v>
       </c>
       <c r="C285" t="n">
         <v>1.71320278494552</v>
@@ -10176,7 +10176,7 @@
         <v>745</v>
       </c>
       <c r="B286" t="n">
-        <v>-4.09026994036912</v>
+        <v>4.09026994036912</v>
       </c>
       <c r="C286" t="n">
         <v>1.69794445386789</v>
@@ -10202,7 +10202,7 @@
         <v>748</v>
       </c>
       <c r="B287" t="n">
-        <v>-4.04031028733253</v>
+        <v>4.04031028733253</v>
       </c>
       <c r="C287" t="n">
         <v>1.80045721240455</v>
@@ -10228,7 +10228,7 @@
         <v>749</v>
       </c>
       <c r="B288" t="n">
-        <v>-4.01509363211506</v>
+        <v>4.01509363211506</v>
       </c>
       <c r="C288" t="n">
         <v>1.78885696591671</v>
@@ -10254,7 +10254,7 @@
         <v>752</v>
       </c>
       <c r="B289" t="n">
-        <v>-4.11215801362412</v>
+        <v>4.11215801362412</v>
       </c>
       <c r="C289" t="n">
         <v>1.66699028203787</v>
@@ -10280,7 +10280,7 @@
         <v>754</v>
       </c>
       <c r="B290" t="n">
-        <v>-3.99149524268611</v>
+        <v>3.99149524268611</v>
       </c>
       <c r="C290" t="n">
         <v>2.07995278945845</v>
@@ -10306,7 +10306,7 @@
         <v>757</v>
       </c>
       <c r="B291" t="n">
-        <v>-4.01345275567374</v>
+        <v>4.01345275567374</v>
       </c>
       <c r="C291" t="n">
         <v>1.78743298523702</v>
@@ -10332,7 +10332,7 @@
         <v>760</v>
       </c>
       <c r="B292" t="n">
-        <v>-4.02738615035957</v>
+        <v>4.02738615035957</v>
       </c>
       <c r="C292" t="n">
         <v>1.77677990271815</v>
@@ -10358,7 +10358,7 @@
         <v>763</v>
       </c>
       <c r="B293" t="n">
-        <v>-4.05691855894271</v>
+        <v>4.05691855894271</v>
       </c>
       <c r="C293" t="n">
         <v>1.65455471060022</v>
@@ -10384,7 +10384,7 @@
         <v>766</v>
       </c>
       <c r="B294" t="n">
-        <v>-4.06692446617128</v>
+        <v>4.06692446617128</v>
       </c>
       <c r="C294" t="n">
         <v>1.65087845818063</v>
@@ -10410,7 +10410,7 @@
         <v>769</v>
       </c>
       <c r="B295" t="n">
-        <v>-3.99295166652664</v>
+        <v>3.99295166652664</v>
       </c>
       <c r="C295" t="n">
         <v>1.75677691368055</v>
@@ -10436,7 +10436,7 @@
         <v>772</v>
       </c>
       <c r="B296" t="n">
-        <v>-4.06892593176328</v>
+        <v>4.06892593176328</v>
       </c>
       <c r="C296" t="n">
         <v>1.62724671968249</v>
@@ -10462,7 +10462,7 @@
         <v>775</v>
       </c>
       <c r="B297" t="n">
-        <v>-3.81288996319048</v>
+        <v>3.81288996319048</v>
       </c>
       <c r="C297" t="n">
         <v>2.27646714888606</v>
@@ -10488,7 +10488,7 @@
         <v>777</v>
       </c>
       <c r="B298" t="n">
-        <v>-3.82969455887861</v>
+        <v>3.82969455887861</v>
       </c>
       <c r="C298" t="n">
         <v>2.26729055311305</v>
@@ -10514,7 +10514,7 @@
         <v>780</v>
       </c>
       <c r="B299" t="n">
-        <v>-3.95454880641747</v>
+        <v>3.95454880641747</v>
       </c>
       <c r="C299" t="n">
         <v>1.73310699700673</v>
@@ -10540,7 +10540,7 @@
         <v>783</v>
       </c>
       <c r="B300" t="n">
-        <v>-3.93490792721045</v>
+        <v>3.93490792721045</v>
       </c>
       <c r="C300" t="n">
         <v>1.9010821481235</v>
@@ -10566,7 +10566,7 @@
         <v>785</v>
       </c>
       <c r="B301" t="n">
-        <v>-3.82998449830642</v>
+        <v>3.82998449830642</v>
       </c>
       <c r="C301" t="n">
         <v>2.04594333674695</v>
@@ -10592,7 +10592,7 @@
         <v>788</v>
       </c>
       <c r="B302" t="n">
-        <v>-3.76115268674159</v>
+        <v>3.76115268674159</v>
       </c>
       <c r="C302" t="n">
         <v>1.85744995385886</v>
@@ -10618,7 +10618,7 @@
         <v>791</v>
       </c>
       <c r="B303" t="n">
-        <v>-3.80928061647466</v>
+        <v>3.80928061647466</v>
       </c>
       <c r="C303" t="n">
         <v>1.61190531830227</v>
@@ -10644,7 +10644,7 @@
         <v>794</v>
       </c>
       <c r="B304" t="n">
-        <v>-3.6618479418728</v>
+        <v>3.6618479418728</v>
       </c>
       <c r="C304" t="n">
         <v>2.14519689139374</v>
@@ -10670,7 +10670,7 @@
         <v>795</v>
       </c>
       <c r="B305" t="n">
-        <v>-3.69801279887997</v>
+        <v>3.69801279887997</v>
       </c>
       <c r="C305" t="n">
         <v>1.93384542436148</v>
@@ -10696,7 +10696,7 @@
         <v>798</v>
       </c>
       <c r="B306" t="n">
-        <v>-3.50376454587672</v>
+        <v>3.50376454587672</v>
       </c>
       <c r="C306" t="n">
         <v>2.27259785183456</v>
@@ -10722,7 +10722,7 @@
         <v>799</v>
       </c>
       <c r="B307" t="n">
-        <v>-3.70614143645176</v>
+        <v>3.70614143645176</v>
       </c>
       <c r="C307" t="n">
         <v>1.51814090776766</v>
@@ -10748,7 +10748,7 @@
         <v>801</v>
       </c>
       <c r="B308" t="n">
-        <v>-3.61862341873979</v>
+        <v>3.61862341873979</v>
       </c>
       <c r="C308" t="n">
         <v>1.70712334170894</v>
@@ -10774,7 +10774,7 @@
         <v>802</v>
       </c>
       <c r="B309" t="n">
-        <v>-3.62066266626424</v>
+        <v>3.62066266626424</v>
       </c>
       <c r="C309" t="n">
         <v>1.75894393562616</v>
@@ -10800,7 +10800,7 @@
         <v>803</v>
       </c>
       <c r="B310" t="n">
-        <v>-3.40520937238156</v>
+        <v>3.40520937238156</v>
       </c>
       <c r="C310" t="n">
         <v>1.66787259729549</v>
